--- a/surface_deform/name_list.xlsx
+++ b/surface_deform/name_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>shinano</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>shinra</t>
-  </si>
-  <si>
-    <t>lapwing</t>
   </si>
   <si>
     <t>manuka</t>
@@ -59,16 +56,13 @@
     <t>lime</t>
   </si>
   <si>
-    <t>mify</t>
+    <t>milfy</t>
   </si>
   <si>
     <t>milltina</t>
   </si>
   <si>
     <t>nagi</t>
-  </si>
-  <si>
-    <t>mamehinata</t>
   </si>
   <si>
     <t>marubody</t>
@@ -1232,97 +1226,174 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/surface_deform/name_list.xlsx
+++ b/surface_deform/name_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>shinano</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ichigo</t>
+  </si>
+  <si>
+    <t>selestia</t>
   </si>
 </sst>
 </file>
@@ -1226,174 +1229,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/surface_deform/name_list.xlsx
+++ b/surface_deform/name_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>shinano</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>selestia</t>
+  </si>
+  <si>
+    <t>lumina</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1317,6 +1320,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/surface_deform/name_list.xlsx
+++ b/surface_deform/name_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>shinano</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>lumina</t>
+  </si>
+  <si>
+    <t>ramune</t>
+  </si>
+  <si>
+    <t>mizuki</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1325,6 +1331,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
